--- a/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -891,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -984,13 +984,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,6 +1153,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1086,15 +1184,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1327,6 +1416,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1358,9 +1456,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="31"/>
+    <tableColumn id="2" name="Link" dataDxfId="30" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1631,25 +1729,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1768,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -1693,7 +1791,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -1719,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -1745,7 +1843,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -1771,7 +1869,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -1797,7 +1895,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -1823,7 +1921,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -1855,11 +1953,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1872,7 +1970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1889,7 +1987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1906,7 +2004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1923,7 +2021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1940,7 +2038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1957,7 +2055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1974,7 +2072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,7 +2089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2021,21 +2119,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2154,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -2079,7 +2177,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -2105,7 +2203,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -2131,7 +2229,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -2157,7 +2255,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -2183,7 +2281,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -2209,7 +2307,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -2265,11 +2363,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2282,7 +2380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2299,7 +2397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2316,7 +2414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2333,7 +2431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2350,12 +2448,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2417,21 +2515,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2452,7 +2550,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -2475,7 +2573,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -2501,7 +2599,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -2527,7 +2625,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -2553,7 +2651,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -2579,7 +2677,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -2605,7 +2703,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -2660,7 +2758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2792,44 +2890,44 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2850,7 +2948,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -2876,7 +2974,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -2902,7 +3000,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -2928,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -2954,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -2980,7 +3078,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -3035,7 +3133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3167,21 +3265,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -3202,7 +3300,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -3225,7 +3323,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -3251,7 +3349,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -3277,7 +3375,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -3303,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -3329,7 +3427,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -3355,7 +3453,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -3410,7 +3508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3542,21 +3640,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -3577,7 +3675,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -3600,7 +3698,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -3626,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -3652,7 +3750,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -3678,7 +3776,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -3704,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -3730,7 +3828,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -3785,7 +3883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3917,21 +4015,21 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -3952,7 +4050,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -3975,7 +4073,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -4001,7 +4099,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -4027,7 +4125,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -4053,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -4079,7 +4177,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -4105,7 +4203,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -4160,7 +4258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4300,25 +4398,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -4339,7 +4437,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6" t="s">
@@ -4362,7 +4460,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -4388,7 +4486,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -4414,7 +4512,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -4440,7 +4538,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -4466,7 +4564,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -4492,7 +4590,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -4547,7 +4645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4715,17 +4813,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +4834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -4747,7 +4845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4758,7 +4856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -4769,7 +4867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>

--- a/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="58">
   <si>
     <t>-</t>
   </si>
@@ -701,9 +701,6 @@
     <t>euro-coins.info</t>
   </si>
   <si>
-    <t>Low convenience table of varities</t>
-  </si>
-  <si>
     <t>img-fotki.yandex</t>
   </si>
   <si>
@@ -789,6 +786,18 @@
   </si>
   <si>
     <t>2€</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>Low convenience table of varieties</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1073,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,22 +1156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,11 +1168,26 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1184,6 +1196,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1416,15 +1437,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1449,16 +1461,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="31"/>
-    <tableColumn id="2" name="Link" dataDxfId="30" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="29"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1733,7 +1745,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1778,16 +1790,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1801,7 +1813,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -1830,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -1853,7 +1865,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -1882,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -1905,7 +1917,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -1931,7 +1943,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -1953,11 +1965,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1970,7 +1982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1987,7 +1999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2004,7 +2016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2021,7 +2033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2038,7 +2050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2055,7 +2067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2072,7 +2084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2089,7 +2101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2164,16 +2176,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2187,7 +2199,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2216,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2239,7 +2251,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2268,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2291,7 +2303,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2317,7 +2329,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -2363,11 +2375,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2380,7 +2392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2397,7 +2409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2414,7 +2426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2431,7 +2443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2448,12 +2460,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2560,16 +2572,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2583,7 +2595,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2612,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2635,7 +2647,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2664,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2687,7 +2699,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2713,7 +2725,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -2758,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2905,29 +2917,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2935,16 +2947,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2958,7 +2970,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2987,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3010,7 +3022,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3062,7 +3074,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3088,7 +3100,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3133,7 +3145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3310,16 +3322,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3333,7 +3345,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3362,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3385,7 +3397,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3414,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3437,7 +3449,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3463,7 +3475,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3508,7 +3520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3685,16 +3697,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3708,7 +3720,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3737,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3760,7 +3772,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3789,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3812,7 +3824,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3838,7 +3850,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3883,7 +3895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4044,10 +4056,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4060,16 +4072,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4083,7 +4095,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4112,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4135,7 +4147,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4164,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4187,7 +4199,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4213,7 +4225,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -4258,7 +4270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4431,10 +4443,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="G1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4447,16 +4459,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4470,7 +4482,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4499,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4522,7 +4534,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4551,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4574,7 +4586,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4600,7 +4612,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -4645,7 +4657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4807,13 +4819,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4864,7 +4876,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4872,10 +4884,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>27</v>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4884,10 +4918,13 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Regular[2014-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1132,6 +1132,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,9 +1188,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1741,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1760,29 +1760,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1969,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2146,29 +2146,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2379,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2542,29 +2542,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2917,29 +2917,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3292,29 +3292,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3667,29 +3667,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3895,7 +3895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4042,29 +4042,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4429,29 +4429,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4821,7 +4821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4897,7 +4897,7 @@
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4918,8 +4918,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
